--- a/DATA/collate_cultivar_data_30_percent/probe_screening/screened_kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data_30_percent/probe_screening/screened_kcp_vs_days.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,7 +2198,7 @@
         <v>179</v>
       </c>
       <c r="C165">
-        <v>0.3533026</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>179</v>
       </c>
       <c r="C166">
-        <v>0.3839662</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>189</v>
       </c>
       <c r="C173">
-        <v>0.4017857</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>189</v>
       </c>
       <c r="C174">
-        <v>0.5909091</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>198</v>
       </c>
       <c r="C181">
-        <v>0.4154676</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>198</v>
       </c>
       <c r="C182">
-        <v>0.6269231</v>
+        <v>0.4154676</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>199</v>
       </c>
       <c r="C183">
-        <v>0.5072464</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>199</v>
       </c>
       <c r="C184">
-        <v>0.5191041</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>203</v>
       </c>
       <c r="C186">
-        <v>0.5660036000000001</v>
+        <v>0.3833635</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>203</v>
       </c>
       <c r="C187">
-        <v>0.3833635</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>209</v>
       </c>
       <c r="C192">
-        <v>0.4245723</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>209</v>
       </c>
       <c r="C193">
-        <v>0.5483871</v>
+        <v>0.4245723</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>210</v>
       </c>
       <c r="C194">
-        <v>0.3636364</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>210</v>
       </c>
       <c r="C195">
-        <v>0.3723776</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>210</v>
       </c>
       <c r="C196">
-        <v>0.5355932</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>213</v>
       </c>
       <c r="C199">
-        <v>0.535316</v>
+        <v>0.4609665</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>213</v>
       </c>
       <c r="C200">
-        <v>0.4609665</v>
+        <v>0.535316</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>214</v>
       </c>
       <c r="C201">
-        <v>0.423913</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>214</v>
       </c>
       <c r="C202">
-        <v>0.3900344</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>216</v>
       </c>
       <c r="C204">
-        <v>0.3191176</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>216</v>
       </c>
       <c r="C205">
-        <v>0.3642241</v>
+        <v>0.3191176</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2693,7 +2693,7 @@
         <v>220</v>
       </c>
       <c r="C210">
-        <v>0.5022971000000001</v>
+        <v>0.5514706</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>220</v>
       </c>
       <c r="C212">
-        <v>0.5514706</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>0.3469055</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0.3982169</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2770,7 +2770,7 @@
         <v>228</v>
       </c>
       <c r="C217">
-        <v>0.6065891</v>
+        <v>0.374031</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>228</v>
       </c>
       <c r="C218">
-        <v>0.374031</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>232</v>
       </c>
       <c r="C223">
-        <v>0.3625</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>232</v>
       </c>
       <c r="C224">
-        <v>0.4791667</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>238</v>
       </c>
       <c r="C229">
-        <v>0.3855799</v>
+        <v>0.3726708</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>238</v>
       </c>
       <c r="C231">
-        <v>0.3726708</v>
+        <v>0.3855799</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>259</v>
       </c>
       <c r="C248">
-        <v>0.5494505</v>
+        <v>0.592668</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>259</v>
       </c>
       <c r="C250">
-        <v>0.592668</v>
+        <v>0.5494505</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>272</v>
       </c>
       <c r="C260">
-        <v>0.4217252</v>
+        <v>0.3628692</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>272</v>
       </c>
       <c r="C261">
-        <v>0.3628692</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>284</v>
       </c>
       <c r="C266">
-        <v>0.2924791</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>284</v>
       </c>
       <c r="C267">
-        <v>0.2928571</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3449,10 +3449,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C279">
-        <v>0.4466019</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3460,10 +3460,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C280">
-        <v>0.2412587</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3471,10 +3471,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C281">
-        <v>0.2011494</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3482,10 +3482,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C282">
-        <v>0.1826625</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3493,10 +3493,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C283">
-        <v>0.1657609</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3504,10 +3504,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C284">
-        <v>0.2068966</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3515,10 +3515,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C285">
-        <v>0.2135417</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3526,10 +3526,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C286">
-        <v>0.2086168</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3537,10 +3537,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C287">
-        <v>0.1458333</v>
+        <v>0.2558824</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3548,10 +3548,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C288">
-        <v>0.2558824</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3559,10 +3559,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C289">
-        <v>0.2258065</v>
+        <v>0.2008547</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3570,10 +3570,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C290">
-        <v>0.2008547</v>
+        <v>0.2469636</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3581,10 +3581,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C291">
-        <v>0.2469636</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3592,10 +3592,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C292">
-        <v>0.1504065</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3603,10 +3603,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C293">
-        <v>0.25</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3614,20 +3614,9 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C294">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>348</v>
-      </c>
-      <c r="C295">
         <v>0.1046512</v>
       </c>
     </row>
